--- a/data/disasters/raw/disaster_database_metadata.xlsx
+++ b/data/disasters/raw/disaster_database_metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/disasters/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8697C14-5C64-B24C-9BC4-40B1AE0E7310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2ABBE62-03B0-6D44-8437-31972F982ABF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2980" yWindow="1240" windowWidth="27640" windowHeight="16940" xr2:uid="{E110CA1F-C4B0-2448-875A-8A5D81F3A87D}"/>
+    <workbookView xWindow="16800" yWindow="3560" windowWidth="27640" windowHeight="16940" xr2:uid="{E110CA1F-C4B0-2448-875A-8A5D81F3A87D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>Freq</t>
   </si>
@@ -150,9 +141,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>DELETED</t>
-  </si>
-  <si>
     <t>fishery</t>
   </si>
   <si>
@@ -168,21 +156,6 @@
     <t>area_season</t>
   </si>
   <si>
-    <t>Area and season affected by disaster</t>
-  </si>
-  <si>
-    <t>fishery_type2</t>
-  </si>
-  <si>
-    <t>fishery_type1</t>
-  </si>
-  <si>
-    <t>State, Federal, Tribal, or some combination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial, Recreational, Tribal, </t>
-  </si>
-  <si>
     <t>requesters</t>
   </si>
   <si>
@@ -252,10 +225,112 @@
     <t>request_year_lag_yrs</t>
   </si>
   <si>
-    <t>determination_year_lag_yrs</t>
-  </si>
-  <si>
     <t>damages_est_usd</t>
+  </si>
+  <si>
+    <t>Ideas on how to format</t>
+  </si>
+  <si>
+    <t>Number of years between disaster event and relief request</t>
+  </si>
+  <si>
+    <t>Link to request letter</t>
+  </si>
+  <si>
+    <t>Year of relief request</t>
+  </si>
+  <si>
+    <t>Date of relief request</t>
+  </si>
+  <si>
+    <t>Name of requestor</t>
+  </si>
+  <si>
+    <t>Date of request determination</t>
+  </si>
+  <si>
+    <t>Year of request determination</t>
+  </si>
+  <si>
+    <t>Link to press release</t>
+  </si>
+  <si>
+    <t>Formal federally-stated cause</t>
+  </si>
+  <si>
+    <t>Cause of disaster, detailed</t>
+  </si>
+  <si>
+    <t>Determination (approved, partially approved, withdrawn, denied, undetermined, TBD)</t>
+  </si>
+  <si>
+    <t>Link to determination letter</t>
+  </si>
+  <si>
+    <t>Link to funding authority?</t>
+  </si>
+  <si>
+    <t>Correction factor</t>
+  </si>
+  <si>
+    <t>Amount appropriated (in 2019 USD)</t>
+  </si>
+  <si>
+    <t>Amount appropriated (USD)</t>
+  </si>
+  <si>
+    <t>Total estimated damages (USD)</t>
+  </si>
+  <si>
+    <t>Determination authority</t>
+  </si>
+  <si>
+    <t>Cause of disaster, simplified</t>
+  </si>
+  <si>
+    <t>Cause of disaster category (human, environmental, human/environmental)</t>
+  </si>
+  <si>
+    <t>Disaster id</t>
+  </si>
+  <si>
+    <t>State represented in disaster relief request</t>
+  </si>
+  <si>
+    <t>Area and season affected by the disaster</t>
+  </si>
+  <si>
+    <t>mgmt_type</t>
+  </si>
+  <si>
+    <t>Management type (state, federal, tribal)</t>
+  </si>
+  <si>
+    <t>Sector type (comm, rec, tribal, subsistence, other)</t>
+  </si>
+  <si>
+    <t>tribes</t>
+  </si>
+  <si>
+    <t>Tribes</t>
+  </si>
+  <si>
+    <t>sector_type</t>
+  </si>
+  <si>
+    <t>First year of disaster (but not accurate)</t>
+  </si>
+  <si>
+    <t>Years of disaster (continuation=continutation of previous disaster; pending=requested but no determination)</t>
+  </si>
+  <si>
+    <t>state_years</t>
+  </si>
+  <si>
+    <t>Number states x years of disaster</t>
+  </si>
+  <si>
+    <t>Number of days between request and determination</t>
   </si>
 </sst>
 </file>
@@ -286,12 +361,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -317,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -328,6 +409,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -642,7 +725,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6FBEAA0-3434-9944-BF6A-DFAB7D900596}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
@@ -652,10 +735,11 @@
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="92.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>33</v>
       </c>
@@ -665,284 +749,399 @@
       <c r="C1" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="D1" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="2" customFormat="1" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D11" s="7"/>
+    </row>
+    <row r="12" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="7"/>
+    </row>
+    <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="7"/>
+    </row>
+    <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="C18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="7"/>
+    </row>
+    <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" s="7"/>
+    </row>
+    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="C20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="C21" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="7"/>
+    </row>
+    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="7"/>
+    </row>
+    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="C28" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="C29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="C30" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="C31" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C33" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+    </row>
+    <row r="35" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>73</v>
+      <c r="C35" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
